--- a/Pedidos/DataExcel/AprobacionesPedidos.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Idioma</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Aprobar</t>
+  </si>
+  <si>
+    <t>Denegar</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,10 +459,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -468,7 +471,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -485,10 +488,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -500,6 +503,93 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>271</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>272</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>273</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
     </row>
